--- a/biology/Botanique/Grewia_biloba/Grewia_biloba.xlsx
+++ b/biology/Botanique/Grewia_biloba/Grewia_biloba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grewia biloba est une espèce d'arbuste originaire de Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste généralement de 2 m de haut et ne dépassant pas 4 m, caduc et largement ramifié.
 Les feuilles, vertes assez foncées, aux nervures violacées, sont alternes, ovales à légèrement rhomboïdales, de 4 à 10 cm de long et 2,5 à 6 cm de large. Elles sont pétiolées : le pétiole est de 0,5 à 1 cm. Le limbe, à nervation alterne, est à sommet acuminé et base en coin. Son bord est denté.
@@ -554,7 +568,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Grewia biloba est assez largement représenté dans l'ensemble de la Chine (Anhui, Guangdong, Guangxi, Guizhou, Hebei, Henan, Hubei, Hunan, Jiangsu, Jiangxi, Shaanxi, Shandong, Shanxi, Sichuan, Yunnan) et en Corée.
 Elle est capable de résister à -20 °C.
@@ -586,10 +602,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a surtout un usage ornemental en occident.
-La drupe serait comestible[1].
+La drupe serait comestible.
 ↑ Plant For A Future Grewia biloba var. parviflora
 </t>
         </is>
